--- a/Imagine-Klaus/evidence.xlsx
+++ b/Imagine-Klaus/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="78">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,43 +91,181 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>3AB47EB2CF509471772B0C58CAE3FD9AE27E68768A25BD5E6BB79EA25A8EE52D</t>
+  </si>
+  <si>
+    <t>klaushuha</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>387348B8E0A6D918A9FDF79DA2BE6B7056D0476D89BD949A95EE83DB05A8FFA6</t>
+  </si>
+  <si>
+    <t>huhaa2/1</t>
+  </si>
+  <si>
+    <t>6E70FAB7975AD7600476C39B3978F0FB774FB6A157F6C29CCF6E3CFA606576C5</t>
+  </si>
+  <si>
+    <t>huhaa2/2</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
+    <t>991D45FBA4A88E842E6A25AC79DAE2CCCF8B98A0E44DCBD54C08A73DCD926E3B</t>
+  </si>
+  <si>
+    <t>stars1tax5638frfru3djcd50tjna6r3eqkk8g0mqce3vrvjhtpjjqgkgq3jv0em</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>A9B85AF0CA210D609E540407721F2314212A64246C2EDA070F445CEB401C03D7</t>
+  </si>
+  <si>
+    <t>ibc/730827A411A9BC2F17489CB53D3BB9DC54D7B12ABE7AC4E22E295CFAFEA3F15B</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>C08FD507CBD69345C69E03F834FBD99DA9BC4C5813EBFA513406540C4E51C35B</t>
   </si>
   <si>
     <t>tx hash on dest chain</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/5DD97617CD23F40A91F0E88871B1357B015A0FC1833141F385EFC48465661816</t>
+  </si>
+  <si>
+    <t>fa1</t>
+  </si>
+  <si>
+    <t>ibc/CC470F82DB0528958E3068236C4C2954C531018487617FBA57536ACFA18D0B31</t>
+  </si>
+  <si>
+    <t>fa2</t>
+  </si>
+  <si>
+    <t>ibc/6889DB56015E5EDDBEBD1ACFA8FCEE6C68C5297C52E8AD6CCFE05F8E185FE754</t>
+  </si>
+  <si>
+    <t>fa3</t>
+  </si>
+  <si>
+    <t>ibc/696AD9D4C6BD4986A7B2760BFBEA38046CE2AE8DF1382A3FC8D0D190FC588411</t>
+  </si>
+  <si>
+    <t>fa4</t>
+  </si>
+  <si>
+    <t>ibc/1A18D03DABC79B2C5CE22C2B63001B1234B14315B12ECF622F20A6045C869131</t>
+  </si>
+  <si>
+    <t>fa5</t>
+  </si>
+  <si>
+    <t>ibc/5038B972B1BEC23FC9195D5FBCB4CD2D4D5C6AB235F29E37D981206CEF91433B</t>
+  </si>
+  <si>
+    <t>fa6</t>
+  </si>
+  <si>
+    <t>2DA582C8769B31559B9B6415AF9FE7F6202CDC02A76B9BBF2B97544455600EE4</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>7FE100EE8DBFFD0CFC60EE5BB234380DA0E854127974F955DA467DF6321B4240</t>
+  </si>
+  <si>
+    <t>496AFF9DE7D463619704935FD0548A6E8BFA88DF3A66AF316F6230DEDB9BAA23</t>
+  </si>
+  <si>
+    <t>0264E9E951CF669E627325E28F61C3E5BB6CC60D3C173636AD0E72FA004F395D</t>
+  </si>
+  <si>
+    <t>FC3A9D307B5736427AEBE190C81FD8B91EDE881C14F96DD69E6222681D603E96</t>
+  </si>
+  <si>
+    <t>CA485755C54C91659664B02AB3B869CADB8D12650A7279EC60E849E5100FF471</t>
+  </si>
+  <si>
+    <t>CB90DF9D3BA679D73FB5038D35353F1A22FD3D0BC7A14493FE07AAFFA7ADCF67</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>3DC4229A2E018D22F72285DBB646F9E0FDAD4FD0254F992092E84B70730EFA71</t>
+  </si>
+  <si>
+    <t>676097B424A02C75875EBD916896F168A686C64B04C88A9DFA7AC22684DE03E1</t>
+  </si>
+  <si>
+    <t>B053FC6E60296F4445D5F8EBEA1A1E2D453C505C9CD89214EC2C3DCC924208AD</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>0274B923105EB782A71A57B4FD233F90742B6DAAC178FF00EE7C991373D7A4D2</t>
+  </si>
+  <si>
+    <t>208635BD3C77261B377588C6E9148AC2DD28E146E2BA9066F6C535A911F4085E</t>
+  </si>
+  <si>
+    <t>E4A31193C920A78359128F388B0D8170304D9C3747BBAE9E3A1C3C020606766F</t>
+  </si>
+  <si>
+    <t>A8DFD666966C1F33C343366C8D2779B7ABD514E2B276283B9A992D98EC9CC0D5</t>
+  </si>
+  <si>
+    <t>08E02D1DF63D63C3B8651E97167736AC1B5B5EE5F58253F47D961F21E7F7F143</t>
+  </si>
+  <si>
+    <t>57FC5F4FE7E7B7B4B281E6DBBA491D639051DEBE5368154F22CEABFB516CC485</t>
+  </si>
+  <si>
+    <t>EE5E47FD96878E62B9C839A3B10B220D5071D284EF2655379D81F855347F2C8A</t>
+  </si>
+  <si>
+    <t>B788457273E0E89DE77DD1FC74BB476AB6FA779B2A1260B9335CD9658D96D9D0</t>
+  </si>
+  <si>
+    <t>92C3AF8203ECD9EDEC67EE9BB4D2D1C585B7473B9F4A4517ABFFF381BBCC39FC</t>
+  </si>
+  <si>
+    <t>557C0159DB05A9F2EFDFD94429F53BB1616C95C36534B2CA408F3E4BE09A63F0</t>
+  </si>
+  <si>
+    <t>4FCCE8EA6B0B70AE275E8322987B2ED5A2DD7F66E8975627529DC5854E462619</t>
+  </si>
+  <si>
+    <t>18F9DB77B0A0BE51AEC6843547C5E4307F12C7C6CAED8786EB2DC0533AB93E55</t>
+  </si>
+  <si>
+    <t>3815B6DCE345BDB873BE36DC3AB2C4A0972FB44BB3DFDCB20E7912A40B510D8B</t>
+  </si>
+  <si>
+    <t>2DC9F5BCEF75596D37902340969E8F65D064D36A8003448C9BC391F47820C74C</t>
+  </si>
+  <si>
+    <t>6542D29E50E7C101CB9E8E6DAF0944DDE5DF8AFB0AD7B56384937E9E12F8B8E2</t>
+  </si>
+  <si>
+    <t>C60E3739C9300DEB81FFA2EA5EA983C9727D6D71918AF3D23C8EA65BB4D45639</t>
+  </si>
+  <si>
+    <t>45D9808AE7F8F0B7F092D87F573B18C7950D2C5016E6B0D656201BFB97DAFFAA</t>
+  </si>
+  <si>
+    <t>623390247EF02932777D3773DF0465ACCCC70CF6EB43D02412576EA067EFE4D3</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1356,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,10 +1375,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1395,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1276,10 +1414,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1434,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1453,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1473,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1492,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1509,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1526,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1572,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1589,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1635,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1652,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1698,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1715,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1761,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1778,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1824,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1841,34 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1885,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1920,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1937,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +1990,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2007,46 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1819,12 +2078,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1856,12 +2115,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2152,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +2189,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2208,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2233,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2267,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2288,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2319,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2340,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2371,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2392,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2423,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2445,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2476,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2495,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2515,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2264,10 +2534,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Imagine-Klaus/evidence.xlsx
+++ b/Imagine-Klaus/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="16" activeTab="17"/>
+    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>TeamName</t>
   </si>
@@ -250,6 +250,12 @@
     <t>18F9DB77B0A0BE51AEC6843547C5E4307F12C7C6CAED8786EB2DC0533AB93E55</t>
   </si>
   <si>
+    <t>9252ACCE0D4F9620438287F16DF7E767A0DCC04F9E6DF5375D650EB5847C7259</t>
+  </si>
+  <si>
+    <t>0F61C8C9A724D55250FCEFBB14435E2E9CCEFFC78CB9ED6D16C44860FA238FCC</t>
+  </si>
+  <si>
     <t>3815B6DCE345BDB873BE36DC3AB2C4A0972FB44BB3DFDCB20E7912A40B510D8B</t>
   </si>
   <si>
@@ -259,6 +265,15 @@
     <t>6542D29E50E7C101CB9E8E6DAF0944DDE5DF8AFB0AD7B56384937E9E12F8B8E2</t>
   </si>
   <si>
+    <t>74A9F95201E1F221BC6471DC3E074EF8081AD292B81A7BB352C0492D4D40B8F5</t>
+  </si>
+  <si>
+    <t>EA5F39440473CB214BD042B87648AC5DA959BCF55B7AE1D0D9CD9FAFF3932812</t>
+  </si>
+  <si>
+    <t>7647AE1D09B75F8245F17E14378E77FB15287F6907F03878968C8B3343269FF5</t>
+  </si>
+  <si>
     <t>C60E3739C9300DEB81FFA2EA5EA983C9727D6D71918AF3D23C8EA65BB4D45639</t>
   </si>
   <si>
@@ -266,6 +281,15 @@
   </si>
   <si>
     <t>623390247EF02932777D3773DF0465ACCCC70CF6EB43D02412576EA067EFE4D3</t>
+  </si>
+  <si>
+    <t>029B00403406C02819427D594BC715C52884CECD672B1EB542B3F2D686FC7766</t>
+  </si>
+  <si>
+    <t>AEBDB54C343009E7B75F50D225DD0EF273B3709D4C7E6C6EE738C99AC592AA4E</t>
+  </si>
+  <si>
+    <t>F6E368CBB00542D57BF5208510011056953F5BAB10DBF4F4AE07A315D7C7F3EC</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1763,7 +1787,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1827,7 +1851,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1861,12 +1885,17 @@
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1922,8 +1951,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1942,7 +1971,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>46</v>
@@ -1950,7 +1979,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -1958,23 +1987,32 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,7 +2031,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2012,7 +2050,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>46</v>
@@ -2020,7 +2058,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -2028,23 +2066,32 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2078,12 +2125,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2115,12 +2162,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2152,12 +2199,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2189,12 +2236,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
